--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="125">
   <si>
     <t>Firma</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>Sponsoren von GN 2014</t>
+  </si>
+  <si>
+    <t>Lagerhaus Traunviertel</t>
+  </si>
+  <si>
+    <t>Bauplan-Hausbau Steyregg</t>
   </si>
 </sst>
 </file>
@@ -866,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FJ100"/>
+  <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="26">
-        <f>SUM(C8:C94)</f>
+        <f>SUM(C8:C95)</f>
         <v>0</v>
       </c>
       <c r="D4" s="24"/>
@@ -1124,7 +1130,7 @@
       <c r="FJ7" s="10"/>
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1133,7 +1139,7 @@
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -1143,7 +1149,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1153,7 +1159,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1164,7 +1170,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1175,17 +1181,17 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>96</v>
+      <c r="A13" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1195,7 +1201,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1206,7 +1212,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -1217,7 +1223,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1228,256 +1234,236 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>97</v>
+      <c r="A18" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C18" s="14"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B36" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="C36" s="14"/>
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B38" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B39" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>116</v>
       </c>
       <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C45" s="14"/>
     </row>
@@ -1486,48 +1472,51 @@
         <v>78</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B49" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
@@ -1675,6 +1664,9 @@
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="129">
   <si>
     <t>Firma</t>
   </si>
@@ -392,6 +392,18 @@
   </si>
   <si>
     <t>Bauplan-Hausbau Steyregg</t>
+  </si>
+  <si>
+    <t>Benedikt</t>
+  </si>
+  <si>
+    <t>Spenglerei Kaltenbrunner (2 Karten)</t>
+  </si>
+  <si>
+    <t>Froschauer Vollwärmeschutz, etc.</t>
+  </si>
+  <si>
+    <t>Sponsoring abgeschlossen bis 15.Juni.2014</t>
   </si>
 </sst>
 </file>
@@ -874,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +910,9 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:166" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="H2" s="23" t="s">
         <v>80</v>
@@ -1130,7 +1145,7 @@
       <c r="FJ7" s="10"/>
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1139,7 +1154,7 @@
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -1149,7 +1164,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1159,7 +1174,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1170,7 +1185,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1181,7 +1196,7 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -1191,7 +1206,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1201,7 +1216,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1212,7 +1227,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -1223,7 +1238,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1234,7 +1249,7 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -1245,7 +1260,7 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -1254,7 +1269,7 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1263,7 +1278,7 @@
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -1272,20 +1287,26 @@
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="B22" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="B23" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>97</v>
+      <c r="A24" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>18</v>
@@ -1293,8 +1314,8 @@
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>78</v>
+      <c r="A25" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>20</v>
@@ -1302,19 +1323,25 @@
       <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="B26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -1323,7 +1350,7 @@
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -1341,7 +1368,9 @@
       <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="B31" s="20" t="s">
         <v>27</v>
       </c>
@@ -1357,7 +1386,9 @@
       <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="B33" s="20" t="s">
         <v>30</v>
       </c>
@@ -1373,7 +1404,7 @@
       <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -1382,7 +1413,7 @@
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -1392,7 +1423,7 @@
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -1402,7 +1433,7 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -1411,7 +1442,7 @@
       <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -1420,22 +1451,25 @@
       <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="B41" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -1444,13 +1478,16 @@
       <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="B43" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -1459,16 +1496,16 @@
       <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -1477,7 +1514,7 @@
       <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -1486,7 +1523,7 @@
       <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -1495,7 +1532,7 @@
       <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -1504,7 +1541,7 @@
       <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -1513,6 +1550,9 @@
       <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="B51" s="20" t="s">
         <v>74</v>
       </c>
@@ -1678,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="132">
   <si>
     <t>Firma</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>Sponsoring abgeschlossen bis 15.Juni.2014</t>
+  </si>
+  <si>
+    <t>In der Woche vor dem Fest abzuholen</t>
+  </si>
+  <si>
+    <t>Überweisung</t>
+  </si>
+  <si>
+    <t>Transparent + Servietten und Folie</t>
   </si>
 </sst>
 </file>
@@ -523,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -576,6 +585,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +899,7 @@
   <dimension ref="A1:FJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +952,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1151,7 +1163,18 @@
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="28">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -1160,8 +1183,18 @@
       <c r="B9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="28">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1170,8 +1203,18 @@
       <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="28">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -1180,9 +1223,18 @@
       <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="28">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
@@ -1191,9 +1243,18 @@
       <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="28">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="133">
   <si>
     <t>Firma</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Transparent + Servietten und Folie</t>
+  </si>
+  <si>
+    <t>Erhalten</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
   <dimension ref="A1:FJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,6 +1178,9 @@
       <c r="G8" t="s">
         <v>104</v>
       </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -1195,6 +1201,9 @@
       <c r="G9" t="s">
         <v>104</v>
       </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1215,6 +1224,9 @@
       <c r="G10" t="s">
         <v>104</v>
       </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -1235,6 +1247,9 @@
       <c r="G11" t="s">
         <v>130</v>
       </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
@@ -1254,6 +1269,9 @@
       </c>
       <c r="G12" t="s">
         <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">
@@ -1779,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="133">
   <si>
     <t>Firma</t>
   </si>
@@ -535,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -591,6 +591,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,7 +905,7 @@
   <dimension ref="A1:FJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1435,7 +1438,12 @@
       <c r="B29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="29">
+        <v>50</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -1797,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="134">
   <si>
     <t>Firma</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Erhalten</t>
+  </si>
+  <si>
+    <t>Offen</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -591,9 +594,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,7 +905,7 @@
   <dimension ref="A1:FJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1319,7 +1319,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>97</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>97</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>98</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>69</v>
       </c>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>60</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>98</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>64</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>125</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>125</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>98</v>
       </c>
@@ -1431,30 +1431,47 @@
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>50</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="28">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -1463,7 +1480,7 @@
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>78</v>
       </c>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -12,12 +12,12 @@
     <sheet name="Sponsoren 2012" sheetId="7" r:id="rId3"/>
     <sheet name="Sponsoren ALT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="137">
   <si>
     <t>Firma</t>
   </si>
@@ -419,17 +419,26 @@
   </si>
   <si>
     <t>Offen</t>
+  </si>
+  <si>
+    <t>KCS KFC Center (Furth)</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>offen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -596,6 +605,12 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -616,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -690,7 +705,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -725,7 +739,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -901,14 +914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -920,14 +933,14 @@
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:166" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:166">
       <c r="B2" t="s">
         <v>128</v>
       </c>
@@ -939,7 +952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:166">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="D3" s="24"/>
@@ -951,14 +964,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:166" ht="15.75">
       <c r="A4" s="20"/>
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>470</v>
+        <v>790</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -969,18 +982,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:166" s="17" customFormat="1">
       <c r="D5" s="18"/>
       <c r="I5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:166">
       <c r="H6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:166">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -1162,7 +1175,7 @@
       <c r="FI7" s="10"/>
       <c r="FJ7" s="10"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:166">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:166">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:166">
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
@@ -1231,7 +1244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:166">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:166">
       <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1290,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:166">
       <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
@@ -1287,7 +1300,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:166">
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
@@ -1297,7 +1310,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:166">
       <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
@@ -1308,7 +1321,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:166">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -1319,7 +1332,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
@@ -1330,7 +1343,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
@@ -1341,7 +1354,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="20" t="s">
         <v>97</v>
       </c>
@@ -1350,7 +1363,7 @@
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
         <v>97</v>
       </c>
@@ -1359,7 +1372,7 @@
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
         <v>98</v>
       </c>
@@ -1368,7 +1381,7 @@
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
         <v>69</v>
       </c>
@@ -1377,7 +1390,7 @@
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
         <v>60</v>
       </c>
@@ -1386,7 +1399,7 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
         <v>98</v>
       </c>
@@ -1395,7 +1408,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="20" t="s">
         <v>64</v>
       </c>
@@ -1404,7 +1417,7 @@
       </c>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="20" t="s">
         <v>125</v>
       </c>
@@ -1413,7 +1426,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="20" t="s">
         <v>125</v>
       </c>
@@ -1422,7 +1435,7 @@
       </c>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="20" t="s">
         <v>98</v>
       </c>
@@ -1431,7 +1444,7 @@
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="20" t="s">
         <v>50</v>
       </c>
@@ -1451,7 +1464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -1471,25 +1484,53 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="30">
+        <v>50</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="29">
+        <v>100</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="20" t="s">
         <v>78</v>
       </c>
@@ -1498,7 +1539,7 @@
       </c>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="20" t="s">
         <v>97</v>
       </c>
@@ -1507,7 +1548,7 @@
       </c>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="20" t="s">
         <v>98</v>
       </c>
@@ -1516,7 +1557,7 @@
       </c>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
@@ -1526,17 +1567,25 @@
       <c r="C36" s="14"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
         <v>64</v>
       </c>
@@ -1545,7 +1594,7 @@
       </c>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
         <v>64</v>
       </c>
@@ -1554,7 +1603,7 @@
       </c>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
         <v>63</v>
       </c>
@@ -1563,7 +1612,7 @@
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="20" t="s">
         <v>96</v>
       </c>
@@ -1572,7 +1621,7 @@
       </c>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="20" t="s">
         <v>60</v>
       </c>
@@ -1581,7 +1630,7 @@
       </c>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="20" t="s">
         <v>125</v>
       </c>
@@ -1590,7 +1639,7 @@
       </c>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
@@ -1599,7 +1648,7 @@
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="20" t="s">
         <v>63</v>
       </c>
@@ -1608,25 +1657,41 @@
       </c>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="28">
+        <v>70</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="20" t="s">
         <v>98</v>
       </c>
@@ -1635,7 +1700,7 @@
       </c>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="20" t="s">
         <v>98</v>
       </c>
@@ -1644,7 +1709,7 @@
       </c>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="20" t="s">
         <v>97</v>
       </c>
@@ -1653,7 +1718,7 @@
       </c>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="20" t="s">
         <v>69</v>
       </c>
@@ -1662,154 +1727,174 @@
       </c>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
+      <c r="A52" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="29">
+        <v>100</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3">
       <c r="C101" s="7"/>
     </row>
   </sheetData>
@@ -1819,14 +1904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -1834,7 +1919,7 @@
     <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1848,7 +1933,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1862,7 +1947,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1876,7 +1961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1890,7 +1975,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1904,7 +1989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1916,7 +2001,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1928,7 +2013,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1940,7 +2025,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +2037,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1964,7 +2049,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1978,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1992,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2006,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2020,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2034,7 +2119,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2048,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2062,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2076,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2090,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -2104,7 +2189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>50</v>
       </c>
@@ -2118,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
@@ -2130,7 +2215,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
@@ -2144,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="20" t="s">
         <v>78</v>
       </c>
@@ -2154,7 +2239,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="20" t="s">
         <v>65</v>
       </c>
@@ -2164,7 +2249,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -2176,7 +2261,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -2190,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2204,7 +2289,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2218,7 +2303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2230,7 +2315,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2244,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2256,7 +2341,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2270,7 +2355,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2282,7 +2367,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2296,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2310,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2320,7 +2405,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2334,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2348,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2362,7 +2447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2376,7 +2461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2388,7 +2473,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2406,14 +2491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -2421,7 +2506,7 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2435,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2449,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2463,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2477,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2491,7 +2576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2505,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2517,7 +2602,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2531,7 +2616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2545,7 +2630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2559,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2573,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2587,7 +2672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2601,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2613,7 +2698,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2625,7 +2710,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2637,7 +2722,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2651,7 +2736,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2663,7 +2748,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2675,7 +2760,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2689,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -2703,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2717,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2731,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2743,7 +2828,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2771,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2785,7 +2870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2799,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2813,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2827,7 +2912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2839,7 +2924,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2851,7 +2936,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2865,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2877,7 +2962,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2891,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -2901,7 +2986,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2915,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2927,7 +3012,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2939,127 +3024,127 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4">
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4">
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4">
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4">
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4">
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4">
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4">
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4">
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4">
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4">
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4">
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4">
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4">
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4">
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4">
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
     </row>
@@ -3069,14 +3154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
@@ -3085,17 +3170,17 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3189,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="10" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -3127,7 +3212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3144,7 +3229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3162,7 +3247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3180,7 +3265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3197,7 +3282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3214,7 +3299,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3231,7 +3316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3245,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3262,7 +3347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3279,7 +3364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3293,7 +3378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3304,7 +3389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3315,7 +3400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3332,7 +3417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3346,7 +3431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3363,7 +3448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3377,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3394,7 +3479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3411,7 +3496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3428,7 +3513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3445,7 +3530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3462,7 +3547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +3564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3496,7 +3581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3513,7 +3598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3530,7 +3615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3547,7 +3632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3564,7 +3649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3581,7 +3666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3593,7 +3678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3610,7 +3695,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3624,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3641,7 +3726,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3658,7 +3743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3667,7 +3752,7 @@
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3675,7 +3760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3686,7 +3771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3697,7 +3782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3708,7 +3793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3717,7 +3802,7 @@
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3726,7 +3811,7 @@
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3735,7 +3820,7 @@
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3744,7 +3829,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3753,7 +3838,7 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -3762,7 +3847,7 @@
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -3771,196 +3856,196 @@
       </c>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3">
       <c r="C114" s="7"/>
     </row>
   </sheetData>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -12,12 +12,12 @@
     <sheet name="Sponsoren 2012" sheetId="7" r:id="rId3"/>
     <sheet name="Sponsoren ALT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="137">
   <si>
     <t>Firma</t>
   </si>
@@ -494,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +525,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -547,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -609,6 +615,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -917,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -971,7 +980,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>790</v>
+        <v>910</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1433,7 +1442,15 @@
       <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="29">
+        <v>70</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="20" t="s">
@@ -1637,7 +1654,21 @@
       <c r="B43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="31">
+        <v>50</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="20" t="s">

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -12,7 +12,7 @@
     <sheet name="Sponsoren 2012" sheetId="7" r:id="rId3"/>
     <sheet name="Sponsoren ALT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -433,12 +433,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,12 +525,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -553,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -617,9 +611,6 @@
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -640,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -714,6 +705,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -748,6 +740,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -923,14 +916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -942,14 +935,14 @@
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="26.25">
+    <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:166">
+    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>128</v>
       </c>
@@ -961,7 +954,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:166">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="D3" s="24"/>
@@ -973,7 +966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75">
+    <row r="4" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="25" t="s">
         <v>5</v>
@@ -991,18 +984,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="17" customFormat="1">
+    <row r="5" spans="1:166" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="18"/>
       <c r="I5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:166">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:166">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1177,7 @@
       <c r="FI7" s="10"/>
       <c r="FJ7" s="10"/>
     </row>
-    <row r="8" spans="1:166">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -1207,7 +1200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:166">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:166">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
@@ -1253,7 +1246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:166">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -1276,7 +1269,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:166">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
@@ -1299,7 +1292,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:166">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
@@ -1309,7 +1302,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:166">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
@@ -1319,7 +1312,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:166">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
@@ -1330,7 +1323,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:166">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -1341,7 +1334,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1345,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1356,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>97</v>
       </c>
@@ -1372,7 +1365,7 @@
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>97</v>
       </c>
@@ -1381,7 +1374,7 @@
       </c>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>98</v>
       </c>
@@ -1390,7 +1383,7 @@
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>69</v>
       </c>
@@ -1399,7 +1392,7 @@
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>60</v>
       </c>
@@ -1408,7 +1401,7 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>98</v>
       </c>
@@ -1417,7 +1410,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>64</v>
       </c>
@@ -1426,7 +1419,7 @@
       </c>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>125</v>
       </c>
@@ -1435,7 +1428,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>125</v>
       </c>
@@ -1452,7 +1445,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>98</v>
       </c>
@@ -1461,7 +1454,7 @@
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>50</v>
       </c>
@@ -1481,7 +1474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -1501,7 +1494,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -1524,7 +1517,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
@@ -1547,7 +1540,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>78</v>
       </c>
@@ -1556,7 +1549,7 @@
       </c>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>97</v>
       </c>
@@ -1565,7 +1558,7 @@
       </c>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>98</v>
       </c>
@@ -1574,7 +1567,7 @@
       </c>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
@@ -1584,7 +1577,7 @@
       <c r="C36" s="14"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>78</v>
       </c>
@@ -1602,7 +1595,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>64</v>
       </c>
@@ -1611,7 +1604,7 @@
       </c>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>64</v>
       </c>
@@ -1620,7 +1613,7 @@
       </c>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>63</v>
       </c>
@@ -1629,7 +1622,7 @@
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>96</v>
       </c>
@@ -1638,7 +1631,7 @@
       </c>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>60</v>
       </c>
@@ -1647,14 +1640,14 @@
       </c>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>125</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="28">
         <v>50</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -1670,7 +1663,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
@@ -1679,7 +1672,7 @@
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>63</v>
       </c>
@@ -1688,7 +1681,7 @@
       </c>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>78</v>
       </c>
@@ -1711,7 +1704,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>78</v>
       </c>
@@ -1722,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>98</v>
       </c>
@@ -1731,7 +1724,7 @@
       </c>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>98</v>
       </c>
@@ -1740,7 +1733,7 @@
       </c>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>97</v>
       </c>
@@ -1749,7 +1742,7 @@
       </c>
       <c r="C50" s="14"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>69</v>
       </c>
@@ -1758,7 +1751,7 @@
       </c>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>78</v>
       </c>
@@ -1781,151 +1774,151 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
     </row>
   </sheetData>
@@ -1935,14 +1928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -1950,7 +1943,7 @@
     <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1964,7 +1957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1978,7 +1971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +1985,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +1999,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +2013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -2032,7 +2025,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2044,7 +2037,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2056,7 +2049,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2068,7 +2061,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2080,7 +2073,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2094,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2108,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2122,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2136,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2150,7 +2143,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2164,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2178,7 +2171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2192,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2206,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -2220,7 +2213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
@@ -2246,7 +2239,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>78</v>
       </c>
@@ -2270,7 +2263,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>65</v>
       </c>
@@ -2280,7 +2273,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -2292,7 +2285,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -2306,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2313,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2334,7 +2327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2346,7 +2339,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2360,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2372,7 +2365,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2386,7 +2379,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2398,7 +2391,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2412,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2426,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2436,7 +2429,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2450,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2464,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2478,7 +2471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2492,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2504,7 +2497,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2522,14 +2515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -2537,7 +2530,7 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2551,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2565,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2579,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2593,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2607,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2621,7 +2614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2633,7 +2626,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2647,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2661,7 +2654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2675,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2689,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2703,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2717,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2729,7 +2722,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2741,7 +2734,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2753,7 +2746,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2767,7 +2760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2779,7 +2772,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2791,7 +2784,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2805,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -2819,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2833,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2847,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2859,7 +2852,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2873,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2887,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2901,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2915,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2929,7 +2922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2943,7 +2936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2955,7 +2948,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2967,7 +2960,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2981,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2993,7 +2986,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3007,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3017,7 +3010,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3031,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3043,7 +3036,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3055,127 +3048,127 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="3:4">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
     </row>
@@ -3185,14 +3178,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
@@ -3201,17 +3194,17 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3220,7 +3213,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -3243,7 +3236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3260,7 +3253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3278,7 +3271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3296,7 +3289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3313,7 +3306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3330,7 +3323,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3347,7 +3340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3361,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3378,7 +3371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3395,7 +3388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3409,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3420,7 +3413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3431,7 +3424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3448,7 +3441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3462,7 +3455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3479,7 +3472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3493,7 +3486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3510,7 +3503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3527,7 +3520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3544,7 +3537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3561,7 +3554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3578,7 +3571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3612,7 +3605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3629,7 +3622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3646,7 +3639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3663,7 +3656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3680,7 +3673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3697,7 +3690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3709,7 +3702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3726,7 +3719,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3757,7 +3750,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3774,7 +3767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3783,7 +3776,7 @@
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3791,7 +3784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3813,7 +3806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3824,7 +3817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3833,7 +3826,7 @@
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3842,7 +3835,7 @@
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3851,7 +3844,7 @@
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3860,7 +3853,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3869,7 +3862,7 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -3878,7 +3871,7 @@
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -3887,196 +3880,196 @@
       </c>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
     </row>
   </sheetData>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="140">
   <si>
     <t>Firma</t>
   </si>
@@ -428,6 +428,15 @@
   </si>
   <si>
     <t>offen</t>
+  </si>
+  <si>
+    <t>Transport mit LKW</t>
+  </si>
+  <si>
+    <t>Wird bei Sandlieferung mitgebracht</t>
+  </si>
+  <si>
+    <t>Überwesiung</t>
   </si>
 </sst>
 </file>
@@ -919,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +982,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>910</v>
+        <v>1030</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1363,7 +1372,15 @@
       <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -1372,7 +1389,19 @@
       <c r="B20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="28">
+        <v>70</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -1740,7 +1769,19 @@
       <c r="B50" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="28">
+        <v>50</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -12,12 +12,12 @@
     <sheet name="Sponsoren 2012" sheetId="7" r:id="rId3"/>
     <sheet name="Sponsoren ALT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="141">
   <si>
     <t>Firma</t>
   </si>
@@ -437,17 +437,20 @@
   </si>
   <si>
     <t>Überwesiung</t>
+  </si>
+  <si>
+    <t>Tschebbarwoggi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +537,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -556,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -620,6 +629,9 @@
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -640,7 +652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -714,7 +726,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -749,7 +760,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -925,14 +935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -944,14 +954,14 @@
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:166" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:166">
       <c r="B2" t="s">
         <v>128</v>
       </c>
@@ -963,7 +973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:166">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="D3" s="24"/>
@@ -975,14 +985,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:166" ht="15.75">
       <c r="A4" s="20"/>
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>1030</v>
+        <v>1130</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -993,18 +1003,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:166" s="17" customFormat="1">
       <c r="D5" s="18"/>
       <c r="I5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:166">
       <c r="H6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:166">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1196,7 @@
       <c r="FI7" s="10"/>
       <c r="FJ7" s="10"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:166">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -1209,7 +1219,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:166">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
@@ -1232,7 +1242,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:166">
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:166">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:166">
       <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:166">
       <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
@@ -1311,7 +1321,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:166">
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
@@ -1321,7 +1331,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:166">
       <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
@@ -1332,7 +1342,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:166">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -1343,7 +1353,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
@@ -1354,7 +1364,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
@@ -1365,7 +1375,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="20" t="s">
         <v>97</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
         <v>97</v>
       </c>
@@ -1403,7 +1413,7 @@
       </c>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
         <v>98</v>
       </c>
@@ -1412,7 +1422,7 @@
       </c>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
         <v>69</v>
       </c>
@@ -1421,7 +1431,7 @@
       </c>
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
         <v>60</v>
       </c>
@@ -1430,7 +1440,7 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
         <v>98</v>
       </c>
@@ -1439,7 +1449,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="20" t="s">
         <v>64</v>
       </c>
@@ -1448,7 +1458,7 @@
       </c>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="20" t="s">
         <v>125</v>
       </c>
@@ -1457,7 +1467,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="20" t="s">
         <v>125</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="20" t="s">
         <v>98</v>
       </c>
@@ -1483,7 +1493,7 @@
       </c>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="20" t="s">
         <v>50</v>
       </c>
@@ -1503,7 +1513,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="20" t="s">
         <v>78</v>
       </c>
@@ -1578,7 +1588,7 @@
       </c>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="20" t="s">
         <v>97</v>
       </c>
@@ -1587,7 +1597,7 @@
       </c>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="20" t="s">
         <v>98</v>
       </c>
@@ -1596,7 +1606,7 @@
       </c>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
@@ -1606,7 +1616,7 @@
       <c r="C36" s="14"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="20" t="s">
         <v>78</v>
       </c>
@@ -1624,7 +1634,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
         <v>64</v>
       </c>
@@ -1633,7 +1643,7 @@
       </c>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
         <v>64</v>
       </c>
@@ -1642,7 +1652,7 @@
       </c>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
         <v>63</v>
       </c>
@@ -1651,7 +1661,7 @@
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="20" t="s">
         <v>96</v>
       </c>
@@ -1660,7 +1670,7 @@
       </c>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="20" t="s">
         <v>60</v>
       </c>
@@ -1669,7 +1679,7 @@
       </c>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="20" t="s">
         <v>125</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
@@ -1701,7 +1711,7 @@
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="20" t="s">
         <v>63</v>
       </c>
@@ -1710,7 +1720,7 @@
       </c>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="20" t="s">
         <v>78</v>
       </c>
@@ -1733,7 +1743,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="20" t="s">
         <v>78</v>
       </c>
@@ -1744,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="20" t="s">
         <v>98</v>
       </c>
@@ -1753,7 +1763,7 @@
       </c>
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="20" t="s">
         <v>98</v>
       </c>
@@ -1762,7 +1772,7 @@
       </c>
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="20" t="s">
         <v>97</v>
       </c>
@@ -1783,7 +1793,7 @@
       </c>
       <c r="H50" s="21"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="20" t="s">
         <v>69</v>
       </c>
@@ -1792,7 +1802,7 @@
       </c>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="20" t="s">
         <v>78</v>
       </c>
@@ -1815,151 +1825,171 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
+      <c r="A53" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="31">
+        <v>100</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3">
       <c r="C101" s="7"/>
     </row>
   </sheetData>
@@ -1969,14 +1999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -1984,7 +2014,7 @@
     <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1998,7 +2028,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2026,7 +2056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2040,7 +2070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2054,7 +2084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -2066,7 +2096,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2078,7 +2108,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2090,7 +2120,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2102,7 +2132,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2114,7 +2144,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2128,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2142,7 +2172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2156,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2170,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2184,7 +2214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2198,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2212,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2226,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2240,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -2254,7 +2284,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>50</v>
       </c>
@@ -2268,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
@@ -2280,7 +2310,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
@@ -2294,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="20" t="s">
         <v>78</v>
       </c>
@@ -2304,7 +2334,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="20" t="s">
         <v>65</v>
       </c>
@@ -2314,7 +2344,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -2326,7 +2356,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -2340,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2354,7 +2384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2368,7 +2398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2380,7 +2410,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2406,7 +2436,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2420,7 +2450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2432,7 +2462,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2446,7 +2476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2460,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2470,7 +2500,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2484,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2498,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2512,7 +2542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2526,7 +2556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2538,7 +2568,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2556,14 +2586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -2571,7 +2601,7 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2585,7 +2615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2599,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2613,7 +2643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2627,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2641,7 +2671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2655,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2667,7 +2697,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2681,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2695,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2709,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2723,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2737,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2751,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2763,7 +2793,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2775,7 +2805,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2787,7 +2817,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2801,7 +2831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2813,7 +2843,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2825,7 +2855,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2839,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -2853,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2867,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2881,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2893,7 +2923,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2907,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2921,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2935,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2949,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2963,7 +2993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2977,7 +3007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2989,7 +3019,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3001,7 +3031,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3015,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3027,7 +3057,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3041,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3051,7 +3081,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3065,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +3107,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3089,127 +3119,127 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4">
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4">
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4">
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4">
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4">
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4">
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4">
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4">
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4">
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4">
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4">
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4">
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4">
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4">
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4">
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
     </row>
@@ -3219,14 +3249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
@@ -3235,17 +3265,17 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3254,7 +3284,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="10" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -3277,7 +3307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3294,7 +3324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3312,7 +3342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3330,7 +3360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3347,7 +3377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3364,7 +3394,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3381,7 +3411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3395,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3412,7 +3442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3429,7 +3459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3443,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3454,7 +3484,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3465,7 +3495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3482,7 +3512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3496,7 +3526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3513,7 +3543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3527,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3544,7 +3574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3561,7 +3591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3578,7 +3608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3595,7 +3625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3612,7 +3642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -3629,7 +3659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3646,7 +3676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3663,7 +3693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3680,7 +3710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3697,7 +3727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3714,7 +3744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3731,7 +3761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3743,7 +3773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3760,7 +3790,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3774,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3791,7 +3821,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3808,7 +3838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3817,7 +3847,7 @@
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3825,7 +3855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3836,7 +3866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3847,7 +3877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3858,7 +3888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3867,7 +3897,7 @@
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3876,7 +3906,7 @@
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3885,7 +3915,7 @@
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3894,7 +3924,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3903,7 +3933,7 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -3912,7 +3942,7 @@
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -3921,196 +3951,196 @@
       </c>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3">
       <c r="C114" s="7"/>
     </row>
   </sheetData>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="141">
   <si>
     <t>Firma</t>
   </si>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>1130</v>
+        <v>1180</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1465,7 +1465,15 @@
       <c r="B26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="29">
+        <v>50</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="20" t="s">

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -12,12 +12,12 @@
     <sheet name="Sponsoren 2012" sheetId="7" r:id="rId3"/>
     <sheet name="Sponsoren ALT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="140">
   <si>
     <t>Firma</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>Wird bei Sandlieferung mitgebracht</t>
-  </si>
-  <si>
-    <t>Überwesiung</t>
   </si>
   <si>
     <t>Tschebbarwoggi</t>
@@ -938,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -992,7 +989,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C95)</f>
-        <v>1180</v>
+        <v>1130</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1409,7 +1406,7 @@
         <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H20" s="21"/>
     </row>
@@ -1581,7 +1578,7 @@
         <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
         <v>133</v>
@@ -1818,7 +1815,7 @@
         <v>134</v>
       </c>
       <c r="C52" s="29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>102</v>
@@ -1838,7 +1835,7 @@
         <v>125</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="31">
         <v>100</v>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -12,12 +12,12 @@
     <sheet name="Sponsoren 2012" sheetId="7" r:id="rId3"/>
     <sheet name="Sponsoren ALT" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="138">
   <si>
     <t>Firma</t>
   </si>
@@ -386,12 +386,6 @@
   </si>
   <si>
     <t>Sponsoren von GN 2014</t>
-  </si>
-  <si>
-    <t>Lagerhaus Traunviertel</t>
-  </si>
-  <si>
-    <t>Bauplan-Hausbau Steyregg</t>
   </si>
   <si>
     <t>Benedikt</t>
@@ -442,12 +436,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,6 +623,9 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -649,7 +646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -723,6 +720,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -757,6 +755,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -932,14 +931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -951,16 +950,16 @@
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="26.25">
+    <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:166">
+    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" s="4"/>
       <c r="H2" s="23" t="s">
@@ -970,7 +969,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:166">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="D3" s="24"/>
@@ -982,14 +981,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75">
+    <row r="4" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="26">
-        <f>SUM(C8:C95)</f>
-        <v>1130</v>
+        <f>SUM(C8:C93)</f>
+        <v>1390</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1000,18 +999,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="17" customFormat="1">
+    <row r="5" spans="1:166" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="18"/>
       <c r="I5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:166">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:166">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -1193,7 +1192,7 @@
       <c r="FI7" s="10"/>
       <c r="FJ7" s="10"/>
     </row>
-    <row r="8" spans="1:166">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -1207,16 +1206,16 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
         <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:166">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
@@ -1230,16 +1229,16 @@
         <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
         <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:166">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
@@ -1253,16 +1252,16 @@
         <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
         <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:166">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -1273,19 +1272,19 @@
         <v>100</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
         <v>130</v>
       </c>
-      <c r="H11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:166">
+    </row>
+    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
@@ -1299,703 +1298,690 @@
         <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>104</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:166">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="29">
+        <v>70</v>
+      </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:166">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="29">
+        <v>70</v>
+      </c>
       <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:166">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="29">
+        <v>50</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:166">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="C16" s="32">
+        <v>70</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="28">
+        <v>70</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="29">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="29">
         <v>70</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="20" t="s">
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="27"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="20" t="s">
-        <v>125</v>
-      </c>
       <c r="B26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="29">
-        <v>50</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="28">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="28">
+        <v>50</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="30">
+        <v>50</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="29">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="28">
-        <v>50</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>112</v>
+      <c r="E29" t="s">
+        <v>127</v>
       </c>
       <c r="G29" t="s">
         <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="28">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="C30" s="29">
+        <v>100</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="30">
-        <v>50</v>
-      </c>
-      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="29">
-        <v>100</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="E35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C36" s="14"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="28">
+        <v>50</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="20" t="s">
+      <c r="B42" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="20" t="s">
+      <c r="B43" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="28">
-        <v>50</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="14"/>
-    </row>
-    <row r="45" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="C44" s="28">
+        <v>70</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="28">
+        <v>50</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="20" t="s">
+      <c r="G48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="28">
-        <v>70</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" t="s">
-        <v>135</v>
-      </c>
-      <c r="H46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="20" t="s">
-        <v>97</v>
-      </c>
       <c r="B50" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="28">
+        <v>132</v>
+      </c>
+      <c r="C50" s="29">
         <v>50</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="31">
+        <v>100</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="29">
-        <v>50</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="31">
-        <v>100</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" t="s">
-        <v>104</v>
-      </c>
-      <c r="H53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2004,14 +1990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -2019,7 +2005,7 @@
     <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2033,7 +2019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2047,7 +2033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2061,7 +2047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2075,7 +2061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2089,7 +2075,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -2101,7 +2087,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2113,7 +2099,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2125,7 +2111,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2137,7 +2123,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2149,7 +2135,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -2163,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2177,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2191,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2205,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2219,7 +2205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2233,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2247,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2261,7 +2247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2275,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -2289,7 +2275,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>50</v>
       </c>
@@ -2303,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
@@ -2315,7 +2301,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
@@ -2329,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>78</v>
       </c>
@@ -2339,7 +2325,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>65</v>
       </c>
@@ -2349,7 +2335,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -2361,7 +2347,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -2375,7 +2361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2389,7 +2375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2403,7 +2389,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2415,7 +2401,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2429,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2441,7 +2427,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2455,7 +2441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2467,7 +2453,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2481,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2495,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2505,7 +2491,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2519,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2533,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2547,7 +2533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2561,7 +2547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2573,7 +2559,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2591,14 +2577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -2606,7 +2592,7 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2620,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2634,7 +2620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2648,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2662,7 +2648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2676,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2690,7 +2676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2702,7 +2688,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2716,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2730,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2744,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2758,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2772,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2786,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2798,7 +2784,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2810,7 +2796,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2822,7 +2808,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2836,7 +2822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2848,7 +2834,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2860,7 +2846,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2874,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -2888,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2902,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2916,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2928,7 +2914,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2942,7 +2928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2956,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2970,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2984,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2998,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3012,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -3024,7 +3010,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3036,7 +3022,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3050,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3062,7 +3048,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3076,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3086,7 +3072,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3100,7 +3086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3112,7 +3098,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3124,127 +3110,127 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="3:4">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
     </row>
@@ -3254,14 +3240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
@@ -3270,17 +3256,17 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3289,7 +3275,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -3312,7 +3298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3329,7 +3315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3347,7 +3333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3365,7 +3351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3382,7 +3368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3399,7 +3385,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3416,7 +3402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3430,7 +3416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3447,7 +3433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3464,7 +3450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3478,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3489,7 +3475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -3500,7 +3486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3517,7 +3503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3531,7 +3517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3548,7 +3534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3562,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3579,7 +3565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3596,7 +3582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3613,7 +3599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3630,7 +3616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3647,7 +3633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -3664,7 +3650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3681,7 +3667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3698,7 +3684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3715,7 +3701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3732,7 +3718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3749,7 +3735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3766,7 +3752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3778,7 +3764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3795,7 +3781,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3809,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3826,7 +3812,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3843,7 +3829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3852,7 +3838,7 @@
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3860,7 +3846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3871,7 +3857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3882,7 +3868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3893,7 +3879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3902,7 +3888,7 @@
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3911,7 +3897,7 @@
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3920,7 +3906,7 @@
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3929,7 +3915,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3938,7 +3924,7 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -3947,7 +3933,7 @@
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -3956,196 +3942,196 @@
       </c>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
     </row>
   </sheetData>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="138">
   <si>
     <t>Firma</t>
   </si>
@@ -935,7 +935,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>1390</v>
+        <v>1490</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1659,7 +1659,15 @@
       <c r="B39" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="28">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="139">
   <si>
     <t>Firma</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Tschebbarwoggi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *) nächstes Jahr wieder</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +531,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -556,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -618,9 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -935,7 +929,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +982,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>1490</v>
+        <v>1690</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1352,7 +1346,7 @@
       <c r="B16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>70</v>
       </c>
       <c r="D16" s="7"/>
@@ -1632,7 +1626,9 @@
       <c r="B36" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="29">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -1641,7 +1637,12 @@
       <c r="B37" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
@@ -1650,7 +1651,9 @@
       <c r="B38" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="31">
+        <v>100</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -1831,7 +1834,7 @@
       <c r="B51" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="28">
         <v>100</v>
       </c>
       <c r="D51" s="6" t="s">

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="142">
   <si>
     <t>Firma</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t xml:space="preserve"> *) nächstes Jahr wieder</t>
+  </si>
+  <si>
+    <t>Kärtchen auflegen</t>
+  </si>
+  <si>
+    <t>Elektro Wurmsdobler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
   </si>
 </sst>
 </file>
@@ -982,7 +991,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>1690</v>
+        <v>1990</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1406,7 +1415,9 @@
       <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -1415,7 +1426,12 @@
       <c r="B21" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="31">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -1424,7 +1440,18 @@
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="28">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -1476,7 +1503,9 @@
       <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
@@ -1589,7 +1618,9 @@
       <c r="B33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
@@ -1679,7 +1710,9 @@
       <c r="B40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -1720,7 +1753,9 @@
       <c r="B43" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
@@ -1763,7 +1798,12 @@
       <c r="B46" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="28">
+        <v>70</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
@@ -1772,7 +1812,12 @@
       <c r="B47" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="28">
+        <v>30</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -1802,7 +1847,9 @@
       <c r="B49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1851,7 +1898,18 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
+      <c r="A52" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="29">
+        <v>100</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="142">
   <si>
     <t>Firma</t>
   </si>
@@ -421,9 +421,6 @@
     <t>bar</t>
   </si>
   <si>
-    <t>offen</t>
-  </si>
-  <si>
     <t>Transport mit LKW</t>
   </si>
   <si>
@@ -442,7 +439,10 @@
     <t>Elektro Wurmsdobler</t>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
+    <t>25er Faß Bier</t>
+  </si>
+  <si>
+    <t>VIP-Karte ab € 50,00</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,8 +508,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +548,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -562,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -629,6 +643,11 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -938,7 +957,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,9 +979,12 @@
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>126</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="E2" s="4"/>
       <c r="H2" s="23" t="s">
@@ -1199,7 +1221,7 @@
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="28">
@@ -1222,7 +1244,7 @@
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="28">
@@ -1245,7 +1267,7 @@
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="28">
@@ -1268,7 +1290,7 @@
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="28">
@@ -1291,7 +1313,7 @@
       <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="28">
@@ -1314,7 +1336,7 @@
       <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="29">
@@ -1326,7 +1348,7 @@
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="29">
@@ -1339,7 +1361,7 @@
       <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="29">
@@ -1365,24 +1387,24 @@
       <c r="A17" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="28">
@@ -1397,7 +1419,9 @@
       <c r="G18" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -1415,9 +1439,7 @@
       <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -1430,14 +1452,14 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="28">
@@ -1457,16 +1479,18 @@
       <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="33" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="29">
@@ -1483,7 +1507,7 @@
       <c r="A25" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="29">
@@ -1511,7 +1535,7 @@
       <c r="A27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="28">
@@ -1531,7 +1555,7 @@
       <c r="A28" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="28">
@@ -1551,7 +1575,7 @@
       <c r="A29" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="30">
@@ -1574,7 +1598,7 @@
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="29">
@@ -1618,9 +1642,7 @@
       <c r="B33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
@@ -1672,14 +1694,14 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="32" t="s">
         <v>124</v>
       </c>
       <c r="C38" s="31">
@@ -1690,7 +1712,7 @@
       <c r="A39" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="28">
@@ -1718,7 +1740,7 @@
       <c r="A41" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="28">
@@ -1734,7 +1756,7 @@
         <v>104</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1783,7 @@
       <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="28">
@@ -1777,7 +1799,7 @@
         <v>133</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,15 +1809,15 @@
       <c r="B45" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="14">
-        <v>0</v>
+      <c r="C45" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="32" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="28">
@@ -1823,7 +1845,7 @@
       <c r="A48" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C48" s="28">
@@ -1838,7 +1860,9 @@
       <c r="G48" t="s">
         <v>128</v>
       </c>
-      <c r="H48" s="21"/>
+      <c r="H48" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -1847,15 +1871,13 @@
       <c r="B49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>141</v>
-      </c>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="32" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="29">
@@ -1871,15 +1893,15 @@
         <v>128</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>137</v>
+      <c r="B51" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="C51" s="28">
         <v>100</v>
@@ -1894,15 +1916,15 @@
         <v>104</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="20" t="s">
-        <v>140</v>
+      <c r="B52" s="32" t="s">
+        <v>139</v>
       </c>
       <c r="C52" s="29">
         <v>100</v>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="143">
   <si>
     <t>Firma</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>VIP-Karte ab € 50,00</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1016,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>1990</v>
+        <v>2290</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1342,7 +1345,9 @@
       <c r="C13" s="29">
         <v>70</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1354,7 +1359,9 @@
       <c r="C14" s="29">
         <v>70</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.25">
@@ -1367,7 +1374,9 @@
       <c r="C15" s="29">
         <v>50</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.25">
@@ -1439,7 +1448,12 @@
       <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14">
+        <v>100</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -1871,7 +1885,12 @@
       <c r="B49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="14">
+        <v>100</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1927,7 +1946,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="29">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>112</v>
@@ -2084,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="144">
   <si>
     <t>Firma</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Sponsern 2015 wieder</t>
   </si>
 </sst>
 </file>
@@ -959,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1019,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>2290</v>
+        <v>2190</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1389,7 +1392,9 @@
       <c r="C16" s="31">
         <v>70</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1656,7 +1661,9 @@
       <c r="B33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
@@ -1665,7 +1672,12 @@
       <c r="B34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,7 +1901,7 @@
         <v>100</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1946,7 +1958,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>112</v>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -12,12 +12,15 @@
     <sheet name="Sponsoren 2012" sheetId="7" r:id="rId3"/>
     <sheet name="Sponsoren ALT" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="144">
   <si>
     <t>Firma</t>
   </si>
@@ -962,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>2190</v>
+        <v>2260</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1386,7 +1389,7 @@
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="31">
@@ -1450,7 +1453,7 @@
       <c r="A20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="14">
@@ -1464,7 +1467,7 @@
       <c r="A21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="32" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="31">
@@ -1643,7 +1646,9 @@
       <c r="B31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
@@ -1702,7 +1707,7 @@
       <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="32" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="29">
@@ -1789,10 +1794,12 @@
       <c r="A42" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="31">
+        <v>70</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
@@ -1894,7 +1901,7 @@
       <c r="A49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="14">
@@ -2106,6 +2113,7 @@
       <c r="C99" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A99"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2116,7 +2124,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2711,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
+++ b/trunk/2014/Sponsoring/Liste der Sponsoren.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="145">
   <si>
     <t>Firma</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>Sponsern 2015 wieder</t>
+  </si>
+  <si>
+    <t>Klebt ws schon am Klowagen</t>
   </si>
 </sst>
 </file>
@@ -966,7 +969,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1025,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>2260</v>
+        <v>2390</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1447,7 +1450,9 @@
       <c r="B19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -1654,10 +1659,18 @@
       <c r="A32" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="29">
+        <v>150</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
@@ -1797,8 +1810,8 @@
       <c r="B42" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="31">
-        <v>70</v>
+      <c r="C42" s="29">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
